--- a/项目备案系统需求表(4).xlsx
+++ b/项目备案系统需求表(4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" tabRatio="576"/>
+    <workbookView windowWidth="28695" windowHeight="13200" tabRatio="576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="合作方注册信息表" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="项目未中标反馈表" sheetId="5" r:id="rId5"/>
     <sheet name="省份负责人基础信息表（内部）" sheetId="6" r:id="rId6"/>
     <sheet name="日报字段需求" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="3">项目中标后设备采购单申请!$C$9</definedName>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>序号</t>
   </si>
@@ -198,6 +199,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4285CC"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>legal</t>
     </r>
     <r>
@@ -343,6 +350,51 @@
     <t>手机</t>
   </si>
   <si>
+    <t xml:space="preserve">NAME	</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>opponent</t>
+  </si>
+  <si>
+    <t>bid_time</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>bid_num</t>
+  </si>
+  <si>
+    <t>leader_name</t>
+  </si>
+  <si>
+    <t>leader_phone</t>
+  </si>
+  <si>
+    <t>bz</t>
+  </si>
+  <si>
     <t>申请人</t>
   </si>
   <si>
@@ -379,6 +431,21 @@
     <t>支持文件上传</t>
   </si>
   <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
     <t>发货通知单编号</t>
   </si>
   <si>
@@ -497,6 +564,36 @@
   </si>
   <si>
     <t>需要提供的帮助</t>
+  </si>
+  <si>
+    <t>极高风险</t>
+  </si>
+  <si>
+    <t>score &lt; 370</t>
+  </si>
+  <si>
+    <t>高风险</t>
+  </si>
+  <si>
+    <t>370&lt;= socre &lt; 445</t>
+  </si>
+  <si>
+    <t>中等风险</t>
+  </si>
+  <si>
+    <t>445&lt;= socre &lt; 560</t>
+  </si>
+  <si>
+    <t>低风险</t>
+  </si>
+  <si>
+    <t>560&lt;= socre &lt; 670</t>
+  </si>
+  <si>
+    <t>极低风险</t>
+  </si>
+  <si>
+    <t>670&lt;= socre</t>
   </si>
 </sst>
 </file>
@@ -505,11 +602,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,21 +642,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF4285CC"/>
       <name val="Arial"/>
@@ -572,21 +654,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -595,16 +662,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,21 +716,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,33 +746,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,15 +760,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +785,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,7 +804,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,13 +825,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +861,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,145 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,6 +943,72 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1215,41 +1291,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,26 +1311,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1307,8 +1333,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,148 +1393,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1589,28 +1665,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1963,8 +2039,8 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1992,12 +2068,12 @@
       <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="3">
@@ -2010,12 +2086,12 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3">
@@ -2038,7 +2114,7 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2052,14 +2128,14 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2148,7 +2224,7 @@
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2168,7 +2244,7 @@
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2228,7 +2304,7 @@
       <c r="B14" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2352,10 +2428,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2568,6 +2644,129 @@
         <v>7</v>
       </c>
     </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D7:I7"/>
@@ -2575,6 +2774,10 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="J19:T19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1" display="budget" tooltip="file:///C:\Program Files (x86)\Youdao\Dict\7.2.0.0703\resultui\dict\?keyword=budget"/>
+    <hyperlink ref="B27" r:id="rId2" display="opponent" tooltip="file:///C:\Program Files (x86)\Youdao\Dict\7.2.0.0703\resultui\dict\?keyword=opponent"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
@@ -2584,10 +2787,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2613,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2625,13 +2828,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2639,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -2651,10 +2854,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E5" s="33"/>
     </row>
@@ -2663,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -2675,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -2687,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -2699,12 +2902,83 @@
         <v>8</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1"/>
+    </row>
+    <row r="12" ht="18.75" spans="3:4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2718,7 +2992,7 @@
   <dimension ref="C2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L22"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2726,14 +3000,14 @@
     <row r="2" ht="14.25"/>
     <row r="3" ht="15" spans="3:12">
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="11"/>
@@ -2756,11 +3030,11 @@
     </row>
     <row r="5" ht="14.25" spans="3:12">
       <c r="C5" s="12" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="16" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2772,14 +3046,14 @@
     </row>
     <row r="6" ht="14.25" spans="3:12">
       <c r="C6" s="12" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="18"/>
       <c r="H6" s="16" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="16"/>
@@ -2788,7 +3062,7 @@
     </row>
     <row r="7" ht="14.25" spans="3:12">
       <c r="C7" s="12" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -2802,14 +3076,14 @@
     </row>
     <row r="8" ht="14.25" spans="3:12">
       <c r="C8" s="12" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="18"/>
       <c r="H8" s="16" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="16"/>
@@ -2818,31 +3092,31 @@
     </row>
     <row r="9" ht="14.25" spans="3:12">
       <c r="C9" s="19" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>50</v>
@@ -2959,7 +3233,7 @@
     <row r="19" ht="14.25" spans="3:12">
       <c r="C19" s="21"/>
       <c r="D19" s="16" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -2973,16 +3247,16 @@
     <row r="20" ht="14.25" spans="3:12">
       <c r="C20" s="21"/>
       <c r="D20" s="20" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="13"/>
       <c r="I20" s="16" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="16"/>
@@ -2991,7 +3265,7 @@
     <row r="21" ht="14.25" spans="3:12">
       <c r="C21" s="22"/>
       <c r="D21" s="20" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
@@ -3057,7 +3331,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -3082,10 +3356,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -3096,7 +3370,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -3104,7 +3378,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -3115,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -3126,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -3137,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -3148,7 +3422,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -3173,8 +3447,7 @@
   <cols>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
@@ -3182,16 +3455,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -3368,7 +3641,7 @@
   <dimension ref="D8:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3380,11 +3653,11 @@
   <sheetData>
     <row r="8" spans="4:9">
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3406,16 +3679,16 @@
         <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="4:9">
@@ -3463,4 +3736,65 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/项目备案系统需求表(4).xlsx
+++ b/项目备案系统需求表(4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" tabRatio="576" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13200" tabRatio="576" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="合作方注册信息表" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>序号</t>
   </si>
@@ -431,9 +431,18 @@
     <t>支持文件上传</t>
   </si>
   <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
     <t>file_type</t>
   </si>
   <si>
+    <t>PROJECT_NAME</t>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
     <t>num</t>
   </si>
   <si>
@@ -566,34 +575,52 @@
     <t>需要提供的帮助</t>
   </si>
   <si>
-    <t>极高风险</t>
-  </si>
-  <si>
-    <t>score &lt; 370</t>
-  </si>
-  <si>
-    <t>高风险</t>
-  </si>
-  <si>
-    <t>370&lt;= socre &lt; 445</t>
-  </si>
-  <si>
-    <t>中等风险</t>
-  </si>
-  <si>
-    <t>445&lt;= socre &lt; 560</t>
-  </si>
-  <si>
-    <t>低风险</t>
-  </si>
-  <si>
-    <t>560&lt;= socre &lt; 670</t>
-  </si>
-  <si>
-    <t>极低风险</t>
-  </si>
-  <si>
-    <t>670&lt;= socre</t>
+    <t>权限梳理  c创建 r读 u 更新 d删除</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>授权申请</t>
+  </si>
+  <si>
+    <t>中标反馈</t>
+  </si>
+  <si>
+    <t>采购单申请</t>
+  </si>
+  <si>
+    <t>日报</t>
+  </si>
+  <si>
+    <t>注册用户</t>
+  </si>
+  <si>
+    <t>crud</t>
+  </si>
+  <si>
+    <t>只能看自己的项目</t>
+  </si>
+  <si>
+    <t>区域负责人</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>能看到自己所负责区域的项目</t>
+  </si>
+  <si>
+    <t>系统管理员</t>
+  </si>
+  <si>
+    <t>全部所有的项目</t>
+  </si>
+  <si>
+    <t>内部员工</t>
   </si>
 </sst>
 </file>
@@ -1538,9 +1565,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2058,362 +2088,362 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:10">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" customFormat="1" spans="1:10">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:7">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:7">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:7">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>13</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="47" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>17</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2430,7 +2460,7 @@
   <sheetPr/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2442,68 +2472,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D6" t="s">
@@ -2511,144 +2541,144 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E19" t="s">
@@ -2656,114 +2686,114 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2789,8 +2819,8 @@
   <sheetPr/>
   <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2801,183 +2831,191 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="2:4">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="27" spans="2:5">
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" customFormat="1" spans="2:5">
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="34">
+      <c r="B9" s="35">
         <v>8</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="12" ht="18.75" spans="3:4">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="3"/>
-      <c r="D13" s="1" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    <row r="15" spans="3:5">
+      <c r="C15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="34"/>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="36" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2992,303 +3030,303 @@
   <dimension ref="C2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="15" spans="3:12">
-      <c r="C3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="C3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" ht="14.25" spans="3:12">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="28"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" ht="14.25" spans="3:12">
-      <c r="C5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="29"/>
+      <c r="C5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" ht="14.25" spans="3:12">
-      <c r="C6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="29"/>
+      <c r="C6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" ht="14.25" spans="3:12">
-      <c r="C7" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="28"/>
+      <c r="C7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" ht="14.25" spans="3:12">
-      <c r="C8" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="29"/>
+      <c r="C8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" ht="14.25" spans="3:12">
-      <c r="C9" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="G9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="I9" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="3:12">
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="30"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" ht="14.25" spans="3:12">
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="30"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" ht="14.25" spans="3:12">
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="30"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" ht="14.25" spans="3:12">
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="30"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" ht="14.25" spans="3:12">
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="30"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" ht="14.25" spans="3:12">
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="30"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" ht="14.25" spans="3:12">
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="30"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" ht="14.25" spans="3:12">
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="30"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" ht="14.25" spans="3:12">
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="30"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" ht="14.25" spans="3:12">
-      <c r="C19" s="21"/>
-      <c r="D19" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="30"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" ht="14.25" spans="3:12">
-      <c r="C20" s="21"/>
-      <c r="D20" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="29"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" ht="14.25" spans="3:12">
-      <c r="C21" s="22"/>
-      <c r="D21" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" ht="14.25" spans="3:12">
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="31"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="32"/>
     </row>
     <row r="23" ht="14.25"/>
   </sheetData>
@@ -3341,90 +3379,90 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="2:4">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>130</v>
+      <c r="D3" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:4">
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3445,189 +3483,189 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3640,7 +3678,7 @@
   <sheetPr/>
   <dimension ref="D8:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -3652,84 +3690,84 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:9">
-      <c r="D8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="4:9">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="4:9">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="4:9">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="4:9">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="4:9">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="4:9">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="4:9">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3741,59 +3779,125 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A4:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="21" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="1" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="31.75" customWidth="1"/>
+    <col min="8" max="16384" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+      <c r="D5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
+      <c r="F5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/项目备案系统需求表(4).xlsx
+++ b/项目备案系统需求表(4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" tabRatio="576" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="13200" tabRatio="576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="合作方注册信息表" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>序号</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>需要提供的帮助</t>
+  </si>
+  <si>
+    <t>pr</t>
   </si>
   <si>
     <t>权限梳理  c创建 r读 u 更新 d删除</t>
@@ -681,6 +684,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -689,45 +707,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,23 +732,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,8 +760,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,17 +799,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,14 +822,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,7 +855,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,31 +1005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,49 +1017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,72 +1039,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1318,11 +1321,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,6 +1371,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,58 +1413,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1423,10 +1426,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1435,137 +1438,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,9 +1577,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2070,7 +2070,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2088,46 +2088,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:10">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" customFormat="1" spans="1:10">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2138,13 +2138,13 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2152,28 +2152,28 @@
       </c>
     </row>
     <row r="5" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2182,16 +2182,16 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2200,18 +2200,18 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2220,18 +2220,18 @@
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2240,58 +2240,58 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="46" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:7">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2300,18 +2300,18 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="46" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:7">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2320,38 +2320,38 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:7">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2360,18 +2360,18 @@
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2380,18 +2380,18 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="46" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>17</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2400,50 +2400,50 @@
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2460,8 +2460,8 @@
   <sheetPr/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2472,18 +2472,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2494,7 +2494,7 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2505,7 +2505,7 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2516,7 +2516,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2527,7 +2527,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2541,7 +2541,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2550,17 +2550,17 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2569,17 +2569,17 @@
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2590,7 +2590,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2612,7 +2612,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2621,17 +2621,17 @@
       <c r="C12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2653,7 +2653,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2664,7 +2664,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2675,7 +2675,7 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2686,7 +2686,7 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2694,7 +2694,7 @@
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2702,7 +2702,7 @@
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2718,7 +2718,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2726,7 +2726,7 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2734,7 +2734,7 @@
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2742,7 +2742,7 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2750,7 +2750,7 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2758,7 +2758,7 @@
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2782,7 +2782,7 @@
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2790,7 +2790,7 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2831,18 +2831,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="2:4">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2854,7 +2854,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" ht="27" spans="2:5">
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2863,12 +2863,12 @@
       <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2880,7 +2880,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2889,10 +2889,10 @@
       <c r="D5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" customFormat="1" spans="2:5">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2901,10 +2901,10 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2916,7 +2916,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2928,20 +2928,20 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>8</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>100</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="12" ht="18.75" spans="3:4">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2965,7 +2965,7 @@
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2976,7 +2976,7 @@
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2984,7 +2984,7 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2992,7 +2992,7 @@
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3000,7 +3000,7 @@
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3008,8 +3008,8 @@
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="35"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3037,296 +3037,296 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="15" spans="3:12">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" ht="14.25" spans="3:12">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" ht="14.25" spans="3:12">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="30"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" ht="14.25" spans="3:12">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="17" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="30"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" ht="14.25" spans="3:12">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="29"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" ht="14.25" spans="3:12">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="17" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="30"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" ht="14.25" spans="3:12">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="3:12">
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="31"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" ht="14.25" spans="3:12">
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="31"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" ht="14.25" spans="3:12">
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="31"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" ht="14.25" spans="3:12">
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="31"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" ht="14.25" spans="3:12">
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="31"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" ht="14.25" spans="3:12">
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="31"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" ht="14.25" spans="3:12">
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="31"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" ht="14.25" spans="3:12">
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="31"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" ht="14.25" spans="3:12">
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="31"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" ht="14.25" spans="3:12">
-      <c r="C19" s="22"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="31"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" ht="14.25" spans="3:12">
-      <c r="C20" s="22"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="17" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="30"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" ht="14.25" spans="3:12">
-      <c r="C21" s="23"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="30"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" ht="14.25" spans="3:12">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="32"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" ht="14.25"/>
   </sheetData>
@@ -3379,18 +3379,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="2:4">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3401,7 +3401,7 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3412,7 +3412,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3423,7 +3423,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3434,7 +3434,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:4">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3445,7 +3445,7 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3456,7 +3456,7 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3483,30 +3483,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
@@ -3515,7 +3515,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
@@ -3524,7 +3524,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
@@ -3533,7 +3533,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
@@ -3542,7 +3542,7 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
@@ -3551,7 +3551,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="2"/>
@@ -3560,7 +3560,7 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" s="2"/>
@@ -3569,7 +3569,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="2"/>
@@ -3578,7 +3578,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" s="2"/>
@@ -3587,7 +3587,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" s="2"/>
@@ -3596,7 +3596,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="2"/>
@@ -3605,7 +3605,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>12</v>
       </c>
       <c r="C15" s="2"/>
@@ -3614,7 +3614,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>13</v>
       </c>
       <c r="C16" s="2"/>
@@ -3623,7 +3623,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>14</v>
       </c>
       <c r="C17" s="2"/>
@@ -3632,7 +3632,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>15</v>
       </c>
       <c r="C18" s="2"/>
@@ -3641,7 +3641,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>16</v>
       </c>
       <c r="C19" s="2"/>
@@ -3650,7 +3650,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>17</v>
       </c>
       <c r="C20" s="2"/>
@@ -3659,7 +3659,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>18</v>
       </c>
       <c r="C21" s="2"/>
@@ -3676,10 +3676,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D8:I15"/>
+  <dimension ref="D8:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3769,6 +3769,11 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3781,8 +3786,8 @@
   <sheetPr/>
   <dimension ref="A4:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="21" customHeight="1" outlineLevelCol="6"/>
@@ -3794,7 +3799,7 @@
   <sheetData>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3805,93 +3810,93 @@
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
